--- a/tests/testthat/fixtures/ex2/tables/dif_poly_TR.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/dif_poly_TR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">DIF.variable</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">mig</t>
   </si>
   <si>
+    <t xml:space="preserve">rotation</t>
+  </si>
+  <si>
     <t xml:space="preserve">item</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t xml:space="preserve">mig 2-3</t>
   </si>
   <si>
+    <t xml:space="preserve">rotation 0-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120001_c</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
     <t xml:space="preserve">-0.022 (-0.019)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.179 ( 0.145)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120002_c</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
     <t xml:space="preserve"> 0.107 ( 0.091)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.153 (-0.124)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120003_c</t>
   </si>
   <si>
@@ -108,6 +120,9 @@
     <t xml:space="preserve">-0.121 (-0.103)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.013 ( 0.011)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120004_c</t>
   </si>
   <si>
@@ -123,6 +138,9 @@
     <t xml:space="preserve">-0.321 (-0.274)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.156 (-0.127)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120005_c</t>
   </si>
   <si>
@@ -138,6 +156,9 @@
     <t xml:space="preserve"> 0.131 ( 0.112)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.004 ( 0.003)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120006_c</t>
   </si>
   <si>
@@ -153,6 +174,9 @@
     <t xml:space="preserve">-0.146 (-0.125)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.081 ( 0.066)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120007_c</t>
   </si>
   <si>
@@ -168,21 +192,24 @@
     <t xml:space="preserve">-0.127 (-0.108)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.033 ( 0.027)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120008_c</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.252 ( 0.207)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.013 ( 0.011)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.275 (-0.235)</t>
   </si>
   <si>
     <t xml:space="preserve">-0.288 (-0.246)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.183 (-0.149)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120009_c</t>
   </si>
   <si>
@@ -195,6 +222,9 @@
     <t xml:space="preserve">-0.208 (-0.178)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.035 (-0.028)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120010_c</t>
   </si>
   <si>
@@ -210,6 +240,9 @@
     <t xml:space="preserve"> 0.091 ( 0.078)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.014 (-0.011)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120011_c</t>
   </si>
   <si>
@@ -225,6 +258,9 @@
     <t xml:space="preserve">-0.003 (-0.003)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.075 ( 0.061)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120012_c</t>
   </si>
   <si>
@@ -240,6 +276,9 @@
     <t xml:space="preserve"> 0.194 ( 0.166)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.068 (-0.055)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120013_c</t>
   </si>
   <si>
@@ -255,6 +294,9 @@
     <t xml:space="preserve"> 0.376 ( 0.321)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.028 ( 0.023)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120014_c</t>
   </si>
   <si>
@@ -285,6 +327,9 @@
     <t xml:space="preserve">-0.079 (-0.067)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.217 ( 0.176)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120016_c</t>
   </si>
   <si>
@@ -300,6 +345,9 @@
     <t xml:space="preserve">-0.031 (-0.026)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.028 (-0.023)</t>
+  </si>
+  <si>
     <t xml:space="preserve">mag120017_c</t>
   </si>
   <si>
@@ -315,6 +363,9 @@
     <t xml:space="preserve">-0.550 (-0.470)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.076 (-0.062)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main effect (DIF model)</t>
   </si>
   <si>
@@ -330,6 +381,9 @@
     <t xml:space="preserve">-0.298 (-0.255)</t>
   </si>
   <si>
+    <t xml:space="preserve">0.044 (0.035)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main effect (Main effect model)</t>
   </si>
   <si>
@@ -343,6 +397,9 @@
   </si>
   <si>
     <t xml:space="preserve">-0.222 (-0.189)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.061 (0.050)</t>
   </si>
 </sst>
 </file>
@@ -789,6 +846,52 @@
         <v>26657</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26365</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26419</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26562</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26355</v>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26441</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -805,342 +908,402 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/ex2/tables/dif_poly_TR.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/dif_poly_TR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">DIF.variable</t>
   </si>
@@ -72,334 +72,343 @@
     <t xml:space="preserve">mag120001_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.063 ( 0.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.090 (-0.077)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.113 (-0.097)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.022 (-0.019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.179 ( 0.145)</t>
+    <t xml:space="preserve"> 0.031 ( 0.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.087 (-0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.041 ( 0.034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.127 ( 0.105)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.184 ( 0.145)</t>
   </si>
   <si>
     <t xml:space="preserve">mag120002_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.042 (-0.035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.029 ( 0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.136 ( 0.116)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.107 ( 0.091)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.153 (-0.124)</t>
+    <t xml:space="preserve">-0.053 (-0.042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.002 ( 0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.130 (-0.107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.132 (-0.109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.119 (-0.094)</t>
   </si>
   <si>
     <t xml:space="preserve">mag120003_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.046 (-0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.242 ( 0.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.121 ( 0.103)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.121 (-0.103)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.013 ( 0.011)</t>
+    <t xml:space="preserve">-0.064 (-0.051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.223 ( 0.184)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.099 ( 0.082)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.125 (-0.103)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.038 ( 0.030)</t>
   </si>
   <si>
     <t xml:space="preserve">mag120004_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.044 (-0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.035 ( 0.030)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.286 (-0.244)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.321 (-0.274)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.156 (-0.127)</t>
+    <t xml:space="preserve">-0.055 (-0.044)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.099 (-0.082)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.389 (-0.321)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.290 (-0.239)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.137 (-0.108)</t>
   </si>
   <si>
     <t xml:space="preserve">mag120005_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.027 (-0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.107 (-0.091)</t>
+    <t xml:space="preserve">-0.017 (-0.014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.082 (-0.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.126 ( 0.104)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.208 ( 0.172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.062 ( 0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120006_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.030 (-0.024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.061 ( 0.050)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.165 ( 0.136)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.104 ( 0.086)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.097 ( 0.077)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120007_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.052 ( 0.042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.120 ( 0.099)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.145 ( 0.120)</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.025 ( 0.021)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.131 ( 0.112)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.004 ( 0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120006_c</t>
+    <t xml:space="preserve"> 0.045 ( 0.036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120008_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.247 ( 0.198)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.100 ( 0.083)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.050 (-0.041)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.149 (-0.123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.179 (-0.141)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120009_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.075 ( 0.060)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.200 (-0.165)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.283 (-0.234)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.083 (-0.069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.076 (-0.060)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120010_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.062 ( 0.050)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.264 (-0.218)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.076 (-0.063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.187 ( 0.154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.087 (-0.069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120011_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.186 ( 0.149)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.077 (-0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006 (-0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.071 ( 0.059)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.026 ( 0.021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120012_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.047 ( 0.038)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.040 ( 0.033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.109 (-0.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.148 (-0.122)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.094 (-0.074)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120013_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.103 (-0.082)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.390 (-0.322)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.176 (-0.145)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.214 ( 0.177)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.138 ( 0.109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120014_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.224 (-0.179)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.346 ( 0.286)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.191 ( 0.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.155 (-0.128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.059 (-0.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120015_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.014 (-0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.087 ( 0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.074 ( 0.061)</t>
   </si>
   <si>
     <t xml:space="preserve">-0.013 (-0.011)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.037 (-0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.183 (-0.156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.146 (-0.125)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.081 ( 0.066)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120007_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.077 ( 0.063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.072 ( 0.061)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.055 (-0.047)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.127 (-0.108)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.033 ( 0.027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120008_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.252 ( 0.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.275 (-0.235)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.288 (-0.246)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.183 (-0.149)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120009_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.058 ( 0.048)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.078 (-0.067)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.208 (-0.178)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.035 (-0.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120010_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.138 ( 0.113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.095 (-0.081)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.004 (-0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.091 ( 0.078)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.014 (-0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120011_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.065 ( 0.053)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.027 ( 0.023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.024 ( 0.020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.003 (-0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.075 ( 0.061)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120012_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.129 (-0.106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.019 ( 0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.212 ( 0.181)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.194 ( 0.166)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.068 (-0.055)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120013_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.098 ( 0.081)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.231 (-0.197)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.145 ( 0.124)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.376 ( 0.321)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.028 ( 0.023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120014_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.209 (-0.172)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.442 ( 0.377)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.341 ( 0.291)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.101 (-0.086)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120015_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.032 ( 0.026)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.043 (-0.037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.122 (-0.104)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.079 (-0.067)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.217 ( 0.176)</t>
+    <t xml:space="preserve">-0.151 (-0.119)</t>
   </si>
   <si>
     <t xml:space="preserve">mag120016_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.198 (-0.163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.266 ( 0.227)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.235 ( 0.201)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.031 (-0.026)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.028 (-0.023)</t>
+    <t xml:space="preserve">-0.179 (-0.143)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.323 ( 0.267)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.237 ( 0.196)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.086 (-0.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.070 (-0.055)</t>
   </si>
   <si>
     <t xml:space="preserve">mag120017_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.076 ( 0.062)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.466 ( 0.398)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.084 (-0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.550 (-0.470)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.076 (-0.062)</t>
+    <t xml:space="preserve">-0.041 (-0.033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.103 ( 0.085)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.142 (-0.117)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.245 (-0.202)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.381 (-0.301)</t>
   </si>
   <si>
     <t xml:space="preserve">Main effect (DIF model)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.322 (-0.265)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761 (0.650)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463 (0.396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.298 (-0.255)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.044 (0.035)</t>
+    <t xml:space="preserve">-0.340 (-0.272)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722 (0.596)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436 (0.360)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.286 (-0.237)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.067 (0.053)</t>
   </si>
   <si>
     <t xml:space="preserve">Main effect (Main effect model)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.232 (-0.191)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545 (0.465)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323 (0.276)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.222 (-0.189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.061 (0.050)</t>
+    <t xml:space="preserve">-0.242 (-0.194)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.509 (0.420)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.293 (0.242)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.215 (-0.178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.088 (0.069)</t>
   </si>
 </sst>
 </file>
@@ -765,16 +774,16 @@
         <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>26345</v>
+        <v>26042</v>
       </c>
       <c r="E2" t="n">
         <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>26399</v>
+        <v>26096</v>
       </c>
       <c r="G2" t="n">
-        <v>26542</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="3">
@@ -788,16 +797,16 @@
         <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>26323</v>
+        <v>26022</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>26409</v>
+        <v>26108</v>
       </c>
       <c r="G3" t="n">
-        <v>26638</v>
+        <v>26336</v>
       </c>
     </row>
     <row r="4">
@@ -811,16 +820,16 @@
         <v>1500</v>
       </c>
       <c r="D4" t="n">
-        <v>26273</v>
+        <v>25985</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>26329</v>
+        <v>26041</v>
       </c>
       <c r="G4" t="n">
-        <v>26477</v>
+        <v>26190</v>
       </c>
     </row>
     <row r="5">
@@ -834,16 +843,16 @@
         <v>1500</v>
       </c>
       <c r="D5" t="n">
-        <v>26218</v>
+        <v>25936</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>26338</v>
+        <v>26056</v>
       </c>
       <c r="G5" t="n">
-        <v>26657</v>
+        <v>26374</v>
       </c>
     </row>
     <row r="6">
@@ -857,16 +866,16 @@
         <v>1500</v>
       </c>
       <c r="D6" t="n">
-        <v>26365</v>
+        <v>26061</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>26419</v>
+        <v>26115</v>
       </c>
       <c r="G6" t="n">
-        <v>26562</v>
+        <v>26259</v>
       </c>
     </row>
     <row r="7">
@@ -880,16 +889,16 @@
         <v>1500</v>
       </c>
       <c r="D7" t="n">
-        <v>26355</v>
+        <v>26048</v>
       </c>
       <c r="E7" t="n">
         <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>26441</v>
+        <v>26134</v>
       </c>
       <c r="G7" t="n">
-        <v>26669</v>
+        <v>26363</v>
       </c>
     </row>
   </sheetData>
@@ -1074,236 +1083,236 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
